--- a/experiment_results/Overall.xlsx
+++ b/experiment_results/Overall.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-44200" yWindow="1920" windowWidth="28940" windowHeight="24180" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall HM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="199">
   <si>
     <t>Tarantular HM</t>
   </si>
@@ -25743,7 +25743,7 @@
   <dimension ref="A1:F365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+      <selection activeCell="F353" sqref="F353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -32033,17 +32033,21 @@
       </c>
     </row>
     <row r="351" spans="1:6">
+      <c r="C351" s="1">
+        <f>AVERAGEIF(B2:B342,"=3",D2:D342)</f>
+        <v>46.620689655172413</v>
+      </c>
       <c r="D351">
-        <f>AVERAGEIF(B2:B267,"=3",D2:D267)</f>
-        <v>59.162790697674417</v>
+        <f>AVERAGEIF(B2:B342,"=3",D2:D342)</f>
+        <v>46.620689655172413</v>
       </c>
       <c r="E351">
-        <f>AVERAGEIF(B2:B267,"=3",E2:E267)</f>
-        <v>221277.39534883722</v>
+        <f>AVERAGEIF(B2:B342,"=3",E2:E342)</f>
+        <v>211105.22413793104</v>
       </c>
       <c r="F351">
-        <f>AVERAGEIF(B2:B267,"=3",F2:F267)</f>
-        <v>208775.53488372092</v>
+        <f>AVERAGEIF(B2:B342,"=3",F2:F342)</f>
+        <v>201806.18965517241</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -32058,6 +32062,10 @@
       </c>
     </row>
     <row r="353" spans="3:6">
+      <c r="C353">
+        <f>AVERAGEIF(A2:A342,"&lt;&gt;3",C2:C342)</f>
+        <v>18.96</v>
+      </c>
       <c r="D353">
         <f>AVERAGEIF(B2:B267,"&lt;&gt;3",D2:D267)</f>
         <v>27.304932735426011</v>
@@ -32083,6 +32091,10 @@
       </c>
     </row>
     <row r="358" spans="3:6">
+      <c r="C358">
+        <f>AVERAGEIF(A2:A342,"*_js*",C2:C342)</f>
+        <v>14.304347826086957</v>
+      </c>
       <c r="D358">
         <f>AVERAGEIF(A2:A267,"*_js*",D2:D267)</f>
         <v>85.383720930232556</v>
@@ -32108,6 +32120,10 @@
       </c>
     </row>
     <row r="360" spans="3:6">
+      <c r="C360">
+        <f>AVERAGEIF(A2:A342,"*_jm*",C2:C342)</f>
+        <v>17.944444444444443</v>
+      </c>
       <c r="D360">
         <f>AVERAGEIF(A2:A267,"*_jm*",D2:D267)</f>
         <v>8.0568181818181817</v>
@@ -32133,6 +32149,10 @@
       </c>
     </row>
     <row r="362" spans="3:6">
+      <c r="C362">
+        <f>AVERAGEIF(A2:A342,"*_jc*",C2:C342)</f>
+        <v>24.34</v>
+      </c>
       <c r="D362">
         <f>AVERAGEIF(A2:A267,"*_jc*",D2:D267)</f>
         <v>6.3152173913043477</v>
@@ -32147,11 +32167,21 @@
       </c>
     </row>
     <row r="364" spans="3:6">
+      <c r="C364" t="s">
+        <v>180</v>
+      </c>
+      <c r="D364" t="s">
+        <v>180</v>
+      </c>
       <c r="E364" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="365" spans="3:6">
+      <c r="C365">
+        <f>AVERAGE(C2:C267)</f>
+        <v>18.96</v>
+      </c>
       <c r="D365">
         <f>AVERAGE(D2:D267)</f>
         <v>32.454887218045116</v>
